--- a/algorithm-server/src/main/resources/templates/grouping_template.xlsx
+++ b/algorithm-server/src/main/resources/templates/grouping_template.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23426"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B012E64C-9639-4685-9BD3-8A66817F13F0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6488C05C-D6E2-4B0A-9204-A6C9047B46AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14940" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="930" yWindow="-120" windowWidth="27990" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
@@ -303,7 +303,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -315,6 +315,9 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -656,7 +659,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -691,7 +694,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
+      <c r="A6" s="11" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
